--- a/data/trans_orig/P38B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23100F6F-325F-4AD6-9D9D-CA774F963C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF84B5C-5D99-4B44-B14E-6761281BDD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13A5E43B-6D8A-460C-814B-8D8FAB404B03}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58783096-21C7-40EE-BACF-2B771123F25F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>51,54%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>76,32%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>85,31%</t>
   </si>
   <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +253,49 @@
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>88,69%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>11,31%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,895 +304,913 @@
     <t>93,14%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>92,61%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>88,22%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,78%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3D5820-8613-4567-841B-0B47B3B539CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F2E3B-0783-40E3-B2F3-7404E80F1B82}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2235,7 +2247,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2262,13 @@
         <v>58690</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -2265,13 +2277,13 @@
         <v>57150</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -2280,13 +2292,13 @@
         <v>115840</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,7 +2354,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2366,13 @@
         <v>394894</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>384</v>
@@ -2369,13 +2381,13 @@
         <v>423651</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -2384,13 +2396,13 @@
         <v>818547</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2417,13 @@
         <v>29106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2420,13 +2432,13 @@
         <v>21058</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2435,13 +2447,13 @@
         <v>50163</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2509,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2509,13 +2521,13 @@
         <v>527463</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>664</v>
@@ -2524,13 +2536,13 @@
         <v>710729</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1140</v>
@@ -2539,7 +2551,7 @@
         <v>1238192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>113</v>
@@ -2566,7 +2578,7 @@
         <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2575,13 +2587,13 @@
         <v>27633</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2590,13 +2602,13 @@
         <v>54508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2676,13 @@
         <v>2794901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2872</v>
@@ -2679,13 +2691,13 @@
         <v>3106278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>5472</v>
@@ -2694,13 +2706,13 @@
         <v>5901178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,28 +2727,28 @@
         <v>607921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>408</v>
       </c>
       <c r="I23" s="7">
-        <v>432186</v>
+        <v>432185</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -2745,13 +2757,13 @@
         <v>1040107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,7 +2790,7 @@
         <v>3280</v>
       </c>
       <c r="I24" s="7">
-        <v>3538464</v>
+        <v>3538463</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2807,7 +2819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B7CA14-C39D-4F40-A836-ED3338E0261A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07140E6-7884-4244-974D-578124453050}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +2965,13 @@
         <v>226212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>259</v>
@@ -2968,13 +2980,13 @@
         <v>254279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>472</v>
@@ -2983,13 +2995,13 @@
         <v>480491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3016,13 @@
         <v>179770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -3019,13 +3031,13 @@
         <v>139531</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -3034,13 +3046,13 @@
         <v>319301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3120,13 @@
         <v>408095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>472</v>
@@ -3123,28 +3135,28 @@
         <v>460044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>866</v>
       </c>
       <c r="N7" s="7">
-        <v>868139</v>
+        <v>868138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3171,13 @@
         <v>181383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3174,13 +3186,13 @@
         <v>103500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -3189,13 +3201,13 @@
         <v>284883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3249,7 @@
         <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1153022</v>
+        <v>1153021</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3263,13 +3275,13 @@
         <v>540284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3278,13 +3290,13 @@
         <v>559868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -3293,13 +3305,13 @@
         <v>1100152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3326,13 @@
         <v>121151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3329,13 +3341,13 @@
         <v>95016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -3344,13 +3356,13 @@
         <v>216167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3430,13 @@
         <v>561703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -3433,13 +3445,13 @@
         <v>588745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>1054</v>
@@ -3448,13 +3460,13 @@
         <v>1150447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3481,7 @@
         <v>77185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>206</v>
@@ -3561,7 +3573,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3594,7 +3606,7 @@
         <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -3603,7 +3615,7 @@
         <v>905342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>220</v>
@@ -3642,10 +3654,10 @@
         <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3654,7 +3666,7 @@
         <v>68231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>228</v>
@@ -3716,7 +3728,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3755,7 +3767,7 @@
         <v>1253</v>
       </c>
       <c r="N19" s="7">
-        <v>1338680</v>
+        <v>1338679</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>236</v>
@@ -3857,7 +3869,7 @@
         <v>1280</v>
       </c>
       <c r="N21" s="7">
-        <v>1367218</v>
+        <v>1367217</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3910,7 +3922,7 @@
         <v>5520</v>
       </c>
       <c r="N22" s="7">
-        <v>5843251</v>
+        <v>5843250</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>254</v>
@@ -4012,7 +4024,7 @@
         <v>6533</v>
       </c>
       <c r="N24" s="7">
-        <v>6897889</v>
+        <v>6897888</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4038,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4048,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D602C562-1A83-464C-9E34-F3B78BE1BFA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE599C-5D4A-43BC-85DB-BC850B2C29B6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,7 +4530,7 @@
         <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4545,13 @@
         <v>133892</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4548,13 +4560,13 @@
         <v>95051</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -4563,13 +4575,13 @@
         <v>228942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,28 +4649,28 @@
         <v>587524</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>1045</v>
       </c>
       <c r="I13" s="7">
-        <v>683565</v>
+        <v>683566</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>1632</v>
@@ -4667,13 +4679,13 @@
         <v>1271091</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4700,13 @@
         <v>136466</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -4703,13 +4715,13 @@
         <v>63129</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4718,13 +4730,13 @@
         <v>199594</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4763,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746694</v>
+        <v>746695</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4780,7 +4792,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4792,13 +4804,13 @@
         <v>552948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
@@ -4807,13 +4819,13 @@
         <v>565697</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>1568</v>
@@ -4822,13 +4834,13 @@
         <v>1118646</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4855,13 @@
         <v>46138</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4858,13 +4870,13 @@
         <v>31366</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4935,7 +4947,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4947,13 +4959,13 @@
         <v>675810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>1657</v>
@@ -4962,13 +4974,13 @@
         <v>993929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>2655</v>
@@ -4977,13 +4989,13 @@
         <v>1669739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +5010,13 @@
         <v>21129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5013,13 +5025,13 @@
         <v>30457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5028,13 +5040,13 @@
         <v>51586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5114,13 @@
         <v>2685412</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>4852</v>
@@ -5117,13 +5129,13 @@
         <v>3298225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>7739</v>
@@ -5132,13 +5144,13 @@
         <v>5983638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5165,13 @@
         <v>697930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>504</v>
@@ -5168,13 +5180,13 @@
         <v>505659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>991</v>
@@ -5183,13 +5195,13 @@
         <v>1203588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5257,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF84B5C-5D99-4B44-B14E-6761281BDD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB232042-2F0E-486E-847E-A93D049B2A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{58783096-21C7-40EE-BACF-2B771123F25F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB2B21E0-3C55-426F-8E6C-FA6708E0A150}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>51,54%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>76,32%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>85,18%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>85,31%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,589 +253,601 @@
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>87,92%</t>
   </si>
   <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
@@ -919,9 +931,6 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
     <t>35,44%</t>
   </si>
   <si>
@@ -941,9 +950,6 @@
   </si>
   <si>
     <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
   </si>
   <si>
     <t>35,49%</t>
@@ -1622,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F2E3B-0783-40E3-B2F3-7404E80F1B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BB5D07-9C10-4BD3-8591-35A16A8ED11C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1928,7 +1934,7 @@
         <v>985</v>
       </c>
       <c r="N7" s="7">
-        <v>1037159</v>
+        <v>1037160</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2030,7 +2036,7 @@
         <v>1229</v>
       </c>
       <c r="N9" s="7">
-        <v>1288529</v>
+        <v>1288530</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2247,7 +2253,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2268,13 @@
         <v>58690</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -2277,13 +2283,13 @@
         <v>57150</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -2292,13 +2298,13 @@
         <v>115840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2360,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2372,13 @@
         <v>394894</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>384</v>
@@ -2381,13 +2387,13 @@
         <v>423651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>747</v>
@@ -2396,13 +2402,13 @@
         <v>818547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2423,13 @@
         <v>29106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2432,13 +2438,13 @@
         <v>21058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -2447,13 +2453,13 @@
         <v>50163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,7 +2515,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2521,13 +2527,13 @@
         <v>527463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>664</v>
@@ -2536,13 +2542,13 @@
         <v>710729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1140</v>
@@ -2551,13 +2557,13 @@
         <v>1238192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,13 +2578,13 @@
         <v>26875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2587,13 +2593,13 @@
         <v>27633</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2602,13 +2608,13 @@
         <v>54508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2682,13 @@
         <v>2794901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2872</v>
@@ -2691,13 +2697,13 @@
         <v>3106278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5472</v>
@@ -2706,13 +2712,13 @@
         <v>5901178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,28 +2733,28 @@
         <v>607921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>408</v>
       </c>
       <c r="I23" s="7">
-        <v>432185</v>
+        <v>432186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -2757,13 +2763,13 @@
         <v>1040107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2796,7 @@
         <v>3280</v>
       </c>
       <c r="I24" s="7">
-        <v>3538463</v>
+        <v>3538464</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2825,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07140E6-7884-4244-974D-578124453050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4376A216-4C35-4135-B318-57763C1E2633}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2858,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2965,13 +2971,13 @@
         <v>226212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>259</v>
@@ -2980,13 +2986,13 @@
         <v>254279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>472</v>
@@ -2995,13 +3001,13 @@
         <v>480491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3022,13 @@
         <v>179770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -3031,13 +3037,13 @@
         <v>139531</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -3046,13 +3052,13 @@
         <v>319301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3126,13 @@
         <v>408095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>472</v>
@@ -3135,13 +3141,13 @@
         <v>460044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>866</v>
@@ -3150,13 +3156,13 @@
         <v>868138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3177,13 @@
         <v>181383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3186,13 +3192,13 @@
         <v>103500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -3201,13 +3207,13 @@
         <v>284883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3281,13 @@
         <v>540284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3290,13 +3296,13 @@
         <v>559868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -3305,13 +3311,13 @@
         <v>1100152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3332,13 @@
         <v>121151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3341,13 +3347,13 @@
         <v>95016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -3356,13 +3362,13 @@
         <v>216167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3436,13 @@
         <v>561703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -3445,13 +3451,13 @@
         <v>588745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>1054</v>
@@ -3460,13 +3466,13 @@
         <v>1150447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3487,13 @@
         <v>77185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -3496,13 +3502,13 @@
         <v>60332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -3511,13 +3517,13 @@
         <v>137518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3579,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3585,13 +3591,13 @@
         <v>440785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -3600,13 +3606,13 @@
         <v>464557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -3615,13 +3621,13 @@
         <v>905342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3642,13 @@
         <v>37133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3651,13 +3657,13 @@
         <v>31098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3666,13 +3672,13 @@
         <v>68231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3740,13 +3746,13 @@
         <v>577467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>641</v>
@@ -3755,28 +3761,28 @@
         <v>761213</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
       </c>
       <c r="N19" s="7">
-        <v>1338679</v>
+        <v>1338680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3797,13 @@
         <v>13025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3806,13 +3812,13 @@
         <v>15513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3821,13 +3827,13 @@
         <v>28538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,7 +3875,7 @@
         <v>1280</v>
       </c>
       <c r="N21" s="7">
-        <v>1367217</v>
+        <v>1367218</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3895,13 +3901,13 @@
         <v>2754545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2888</v>
@@ -3910,28 +3916,28 @@
         <v>3088706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>5520</v>
       </c>
       <c r="N22" s="7">
-        <v>5843250</v>
+        <v>5843251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3952,13 @@
         <v>609647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
@@ -3961,13 +3967,13 @@
         <v>444990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1013</v>
@@ -3976,13 +3982,13 @@
         <v>1054638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4030,7 @@
         <v>6533</v>
       </c>
       <c r="N24" s="7">
-        <v>6897888</v>
+        <v>6897889</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4038,7 +4044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AE599C-5D4A-43BC-85DB-BC850B2C29B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37C73A3-3BF7-409D-8948-F6EABAC5BB02}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,13 +4190,13 @@
         <v>169207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -4199,13 +4205,13 @@
         <v>201726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -4214,13 +4220,13 @@
         <v>370933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4241,13 @@
         <v>208472</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -4250,13 +4256,13 @@
         <v>152121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
@@ -4265,13 +4271,13 @@
         <v>360593</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>276563</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>352</v>
@@ -4354,13 +4360,13 @@
         <v>365041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>550</v>
@@ -4369,13 +4375,13 @@
         <v>641604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4396,13 @@
         <v>151833</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>108</v>
@@ -4405,13 +4411,13 @@
         <v>133536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -4420,13 +4426,13 @@
         <v>285369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4500,13 @@
         <v>423360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>718</v>
@@ -4509,13 +4515,13 @@
         <v>488265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>1132</v>
@@ -4524,13 +4530,13 @@
         <v>911626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4551,13 @@
         <v>133892</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4560,13 +4566,13 @@
         <v>95051</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -4575,13 +4581,13 @@
         <v>228942</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4655,13 @@
         <v>587524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>1045</v>
@@ -4664,13 +4670,13 @@
         <v>683566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>1632</v>
@@ -4679,13 +4685,13 @@
         <v>1271091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4706,13 @@
         <v>136466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -4715,13 +4721,13 @@
         <v>63129</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
@@ -4730,13 +4736,13 @@
         <v>199594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4798,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4804,13 +4810,13 @@
         <v>552948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
@@ -4819,13 +4825,13 @@
         <v>565697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>1568</v>
@@ -4834,13 +4840,13 @@
         <v>1118646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4861,13 @@
         <v>46138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4870,13 +4876,13 @@
         <v>31366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4885,13 +4891,13 @@
         <v>77504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,7 +4953,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4959,13 +4965,13 @@
         <v>675810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>1657</v>
@@ -4974,13 +4980,13 @@
         <v>993929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>2655</v>
@@ -4989,13 +4995,13 @@
         <v>1669739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5016,13 @@
         <v>21129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5025,13 +5031,13 @@
         <v>30457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5040,13 +5046,13 @@
         <v>51586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5120,13 @@
         <v>2685412</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>4852</v>
@@ -5129,13 +5135,13 @@
         <v>3298225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>7739</v>
@@ -5144,13 +5150,13 @@
         <v>5983638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5171,13 @@
         <v>697930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>504</v>
@@ -5180,13 +5186,13 @@
         <v>505659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>991</v>
@@ -5195,13 +5201,13 @@
         <v>1203588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,7 +5263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB232042-2F0E-486E-847E-A93D049B2A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C93E59-85D5-4A65-B1DE-B0A3D43BFDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB2B21E0-3C55-426F-8E6C-FA6708E0A150}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD24E616-4705-4BDE-B17E-910DEEF2363E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
   </si>
   <si>
     <t>54,44%</t>
   </si>
   <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>51,54%</t>
   </si>
   <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>76,32%</t>
   </si>
   <si>
-    <t>72,98%</t>
+    <t>73,15%</t>
   </si>
   <si>
     <t>79,44%</t>
@@ -148,19 +148,19 @@
     <t>85,18%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>23,68%</t>
@@ -169,25 +169,25 @@
     <t>20,56%</t>
   </si>
   <si>
-    <t>27,02%</t>
+    <t>26,85%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>85,31%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +253,55 @@
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>90,68%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,55 +310,55 @@
     <t>93,14%</t>
   </si>
   <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -367,856 +367,838 @@
     <t>95,15%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>96,26%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>94,57%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>18,89%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BB5D07-9C10-4BD3-8591-35A16A8ED11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0B7D83-209D-4E19-8BED-CF2FCB9CCEF7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1934,7 +1916,7 @@
         <v>985</v>
       </c>
       <c r="N7" s="7">
-        <v>1037160</v>
+        <v>1037159</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2036,7 +2018,7 @@
         <v>1229</v>
       </c>
       <c r="N9" s="7">
-        <v>1288530</v>
+        <v>1288529</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2530,10 +2512,10 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>664</v>
@@ -2542,13 +2524,13 @@
         <v>710729</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1140</v>
@@ -2557,13 +2539,13 @@
         <v>1238192</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2560,13 @@
         <v>26875</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>26</v>
@@ -2593,13 +2575,13 @@
         <v>27633</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>49</v>
@@ -2608,13 +2590,13 @@
         <v>54508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2664,13 @@
         <v>2794901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>2872</v>
@@ -2697,13 +2679,13 @@
         <v>3106278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>5472</v>
@@ -2712,13 +2694,13 @@
         <v>5901178</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2715,13 @@
         <v>607921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>408</v>
@@ -2748,13 +2730,13 @@
         <v>432186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>995</v>
@@ -2763,13 +2745,13 @@
         <v>1040107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4376A216-4C35-4135-B318-57763C1E2633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1046661A-D767-406F-B19C-C36F24543F67}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,13 +2953,13 @@
         <v>226212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>259</v>
@@ -2986,13 +2968,13 @@
         <v>254279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>472</v>
@@ -3001,13 +2983,13 @@
         <v>480491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3004,13 @@
         <v>179770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -3037,13 +3019,13 @@
         <v>139531</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -3052,13 +3034,13 @@
         <v>319301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3108,13 @@
         <v>408095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>472</v>
@@ -3141,28 +3123,28 @@
         <v>460044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>866</v>
       </c>
       <c r="N7" s="7">
-        <v>868138</v>
+        <v>868139</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3159,13 @@
         <v>181383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3192,13 +3174,13 @@
         <v>103500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -3207,13 +3189,13 @@
         <v>284883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3237,7 @@
         <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1153021</v>
+        <v>1153022</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3281,13 +3263,13 @@
         <v>540284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3296,13 +3278,13 @@
         <v>559868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -3311,13 +3293,13 @@
         <v>1100152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3314,13 @@
         <v>121151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3347,13 +3329,13 @@
         <v>95016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -3362,13 +3344,13 @@
         <v>216167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3418,13 @@
         <v>561703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -3451,13 +3433,13 @@
         <v>588745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>1054</v>
@@ -3466,13 +3448,13 @@
         <v>1150447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3469,13 @@
         <v>77185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -3502,13 +3484,13 @@
         <v>60332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -3517,13 +3499,13 @@
         <v>137518</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3573,13 @@
         <v>440785</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -3606,13 +3588,13 @@
         <v>464557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>796</v>
@@ -3621,13 +3603,13 @@
         <v>905342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3624,13 @@
         <v>37133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3657,13 +3639,13 @@
         <v>31098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3672,13 +3654,13 @@
         <v>68231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3728,13 @@
         <v>577467</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>641</v>
@@ -3761,13 +3743,13 @@
         <v>761213</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>1253</v>
@@ -3776,13 +3758,13 @@
         <v>1338680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3779,13 @@
         <v>13025</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3812,13 +3794,13 @@
         <v>15513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3827,13 +3809,13 @@
         <v>28538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3883,13 @@
         <v>2754545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>2888</v>
@@ -3916,13 +3898,13 @@
         <v>3088706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>5520</v>
@@ -3931,13 +3913,13 @@
         <v>5843251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3934,13 @@
         <v>609647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>439</v>
@@ -3967,13 +3949,13 @@
         <v>444990</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1013</v>
@@ -3982,13 +3964,13 @@
         <v>1054638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,7 +4026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37C73A3-3BF7-409D-8948-F6EABAC5BB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF174F-514D-4E9B-B3D9-C93A0D0664B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4083,7 +4065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4190,13 +4172,13 @@
         <v>169207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -4205,13 +4187,13 @@
         <v>201726</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -4220,13 +4202,13 @@
         <v>370933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4223,13 @@
         <v>208472</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -4256,13 +4238,13 @@
         <v>152121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
@@ -4271,13 +4253,13 @@
         <v>360593</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>276563</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>352</v>
@@ -4360,13 +4342,13 @@
         <v>365041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>550</v>
@@ -4375,13 +4357,13 @@
         <v>641604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4378,13 @@
         <v>151833</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>108</v>
@@ -4411,13 +4393,13 @@
         <v>133536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -4426,13 +4408,13 @@
         <v>285369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4482,13 @@
         <v>423360</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>718</v>
@@ -4515,13 +4497,13 @@
         <v>488265</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>1132</v>
@@ -4530,13 +4512,13 @@
         <v>911626</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>133892</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
@@ -4566,13 +4548,13 @@
         <v>95051</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
@@ -4581,10 +4563,10 @@
         <v>228942</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>320</v>
@@ -4667,7 +4649,7 @@
         <v>1045</v>
       </c>
       <c r="I13" s="7">
-        <v>683566</v>
+        <v>683565</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>324</v>
@@ -4769,7 +4751,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746695</v>
+        <v>746694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4828,10 +4810,10 @@
         <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>1568</v>
@@ -4840,13 +4822,13 @@
         <v>1118646</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4843,13 @@
         <v>46138</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -4876,13 +4858,13 @@
         <v>31366</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -4891,13 +4873,13 @@
         <v>77504</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4947,13 @@
         <v>675810</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>1657</v>
@@ -4980,13 +4962,13 @@
         <v>993929</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>2655</v>
@@ -4995,13 +4977,13 @@
         <v>1669739</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4998,13 @@
         <v>21129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -5031,13 +5013,13 @@
         <v>30457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5046,13 +5028,13 @@
         <v>51586</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5102,13 @@
         <v>2685412</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>4852</v>
@@ -5135,13 +5117,13 @@
         <v>3298225</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>7739</v>
@@ -5150,13 +5132,13 @@
         <v>5983638</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5153,13 @@
         <v>697930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H23" s="7">
         <v>504</v>
@@ -5186,13 +5168,13 @@
         <v>505659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>991</v>
@@ -5201,13 +5183,13 @@
         <v>1203588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C93E59-85D5-4A65-B1DE-B0A3D43BFDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{741BA84E-0C88-4AF5-923C-3B64B17C31E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD24E616-4705-4BDE-B17E-910DEEF2363E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EFB8DE47-0E73-40C5-8EB2-0E935753F071}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="438">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>76,32%</t>
@@ -190,7 +190,7 @@
     <t>21,96%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>85,31%</t>
@@ -247,7 +247,7 @@
     <t>14,06%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>90,44%</t>
@@ -304,7 +304,7 @@
     <t>11,23%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>93,14%</t>
@@ -361,49 +361,112 @@
     <t>7,47%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>82,13%</t>
@@ -730,58 +793,112 @@
     <t>8,69%</t>
   </si>
   <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>81,88%</t>
@@ -841,364 +958,400 @@
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1763,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0B7D83-209D-4E19-8BED-CF2FCB9CCEF7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298BD54-2FD9-4881-93CD-60955F82D3B6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2503,49 +2656,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>476</v>
+        <v>271</v>
       </c>
       <c r="D19" s="7">
-        <v>527463</v>
+        <v>297183</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>664</v>
+        <v>328</v>
       </c>
       <c r="I19" s="7">
-        <v>710729</v>
+        <v>337298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1140</v>
+        <v>599</v>
       </c>
       <c r="N19" s="7">
-        <v>1238192</v>
+        <v>634481</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,49 +2707,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>26875</v>
+        <v>10587</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="7">
-        <v>27633</v>
+        <v>16698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N20" s="7">
-        <v>54508</v>
+        <v>27285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>499</v>
+        <v>280</v>
       </c>
       <c r="D21" s="7">
-        <v>554338</v>
+        <v>307770</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2620,10 +2773,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>690</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>738362</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2635,10 +2788,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1189</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1292700</v>
+        <v>661766</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2652,52 +2805,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2600</v>
+        <v>205</v>
       </c>
       <c r="D22" s="7">
-        <v>2794901</v>
+        <v>230280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2872</v>
+        <v>336</v>
       </c>
       <c r="I22" s="7">
-        <v>3106278</v>
+        <v>373431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5472</v>
+        <v>541</v>
       </c>
       <c r="N22" s="7">
-        <v>5901178</v>
+        <v>603711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>130</v>
@@ -2709,49 +2862,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>587</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>607921</v>
+        <v>16288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>408</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>432186</v>
+        <v>10935</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>995</v>
+        <v>24</v>
       </c>
       <c r="N23" s="7">
-        <v>1040107</v>
+        <v>27223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,63 +2913,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>219</v>
+      </c>
+      <c r="D24" s="7">
+        <v>246568</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>346</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384366</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>565</v>
+      </c>
+      <c r="N24" s="7">
+        <v>630934</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2600</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2794901</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2872</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3106278</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5472</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5901178</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>587</v>
+      </c>
+      <c r="D26" s="7">
+        <v>607921</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>408</v>
+      </c>
+      <c r="I26" s="7">
+        <v>432185</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>995</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1040107</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3187</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3402822</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3280</v>
       </c>
-      <c r="I24" s="7">
-        <v>3538464</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3538463</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6467</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6941285</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2829,8 +3138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1046661A-D767-406F-B19C-C36F24543F67}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500AA97-8AEE-4B0D-B07B-87B738D053EC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2846,7 +3155,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2953,13 +3262,13 @@
         <v>226212</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>259</v>
@@ -2968,13 +3277,13 @@
         <v>254279</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>472</v>
@@ -2983,13 +3292,13 @@
         <v>480491</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3313,13 @@
         <v>179770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
@@ -3019,13 +3328,13 @@
         <v>139531</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>312</v>
@@ -3034,13 +3343,13 @@
         <v>319301</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3417,13 @@
         <v>408095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>472</v>
@@ -3123,28 +3432,28 @@
         <v>460044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>866</v>
       </c>
       <c r="N7" s="7">
-        <v>868139</v>
+        <v>868138</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3468,13 @@
         <v>181383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>107</v>
@@ -3174,13 +3483,13 @@
         <v>103500</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>279</v>
@@ -3189,13 +3498,13 @@
         <v>284883</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3546,7 @@
         <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1153022</v>
+        <v>1153021</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3263,13 +3572,13 @@
         <v>540284</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>564</v>
@@ -3278,13 +3587,13 @@
         <v>559868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1079</v>
@@ -3293,13 +3602,13 @@
         <v>1100152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3623,13 @@
         <v>121151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -3329,13 +3638,13 @@
         <v>95016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -3344,13 +3653,13 @@
         <v>216167</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3727,13 @@
         <v>561703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>547</v>
@@ -3433,13 +3742,13 @@
         <v>588745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>1054</v>
@@ -3448,13 +3757,13 @@
         <v>1150447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3778,13 @@
         <v>77185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -3484,13 +3793,13 @@
         <v>60332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -3499,13 +3808,13 @@
         <v>137518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3882,13 @@
         <v>440785</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>405</v>
@@ -3588,10 +3897,10 @@
         <v>464557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>97</v>
@@ -3603,13 +3912,13 @@
         <v>905342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3933,13 @@
         <v>37133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3639,13 +3948,13 @@
         <v>31098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -3654,13 +3963,13 @@
         <v>68231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +4031,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>612</v>
+        <v>317</v>
       </c>
       <c r="D19" s="7">
-        <v>577467</v>
+        <v>326268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>641</v>
+        <v>346</v>
       </c>
       <c r="I19" s="7">
-        <v>761213</v>
+        <v>369609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>663</v>
       </c>
       <c r="N19" s="7">
-        <v>1338680</v>
+        <v>695877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,49 +4082,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>13025</v>
+        <v>8062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>15513</v>
+        <v>8153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>28538</v>
+        <v>16215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>590492</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3839,10 +4148,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>776726</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3854,10 +4163,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1280</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1367218</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3871,55 +4180,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2632</v>
+        <v>295</v>
       </c>
       <c r="D22" s="7">
-        <v>2754545</v>
+        <v>251199</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>2888</v>
+        <v>295</v>
       </c>
       <c r="I22" s="7">
-        <v>3088706</v>
+        <v>391604</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>5520</v>
+        <v>590</v>
       </c>
       <c r="N22" s="7">
-        <v>5843251</v>
+        <v>642801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,49 +4237,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>609647</v>
+        <v>4963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>439</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>444990</v>
+        <v>7360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>1013</v>
+        <v>11</v>
       </c>
       <c r="N23" s="7">
-        <v>1054638</v>
+        <v>12324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,63 +4288,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398964</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>601</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655125</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2632</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2754546</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2888</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3088706</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5520</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5843250</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>574</v>
+      </c>
+      <c r="D26" s="7">
+        <v>609647</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>439</v>
+      </c>
+      <c r="I26" s="7">
+        <v>444990</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1013</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1054638</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3206</v>
       </c>
-      <c r="D24" s="7">
-        <v>3364192</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3364193</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3327</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3533696</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6533</v>
       </c>
-      <c r="N24" s="7">
-        <v>6897889</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6897888</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4048,8 +4513,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF174F-514D-4E9B-B3D9-C93A0D0664B5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8050849C-7799-4DCC-B1D7-FF8AAA80FFC3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4065,7 +4530,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4169,46 +4634,46 @@
         <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>169207</v>
+        <v>196476</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>201726</v>
+        <v>186502</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
       </c>
       <c r="N4" s="7">
-        <v>370933</v>
+        <v>382977</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,46 +4685,46 @@
         <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>208472</v>
+        <v>203511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>152121</v>
+        <v>125605</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
       </c>
       <c r="N5" s="7">
-        <v>360593</v>
+        <v>329117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4736,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4286,7 +4751,7 @@
         <v>206</v>
       </c>
       <c r="I6" s="7">
-        <v>353847</v>
+        <v>312107</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4301,7 +4766,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>731526</v>
+        <v>712094</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4324,46 +4789,46 @@
         <v>198</v>
       </c>
       <c r="D7" s="7">
-        <v>276563</v>
+        <v>278585</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>352</v>
       </c>
       <c r="I7" s="7">
-        <v>365041</v>
+        <v>340451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>550</v>
       </c>
       <c r="N7" s="7">
-        <v>641604</v>
+        <v>619036</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,46 +4840,46 @@
         <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>151833</v>
+        <v>144962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>133536</v>
+        <v>171053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
       </c>
       <c r="N8" s="7">
-        <v>285369</v>
+        <v>316015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4891,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4441,7 +4906,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4456,7 +4921,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4479,46 +4944,46 @@
         <v>414</v>
       </c>
       <c r="D10" s="7">
-        <v>423360</v>
+        <v>413864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>718</v>
       </c>
       <c r="I10" s="7">
-        <v>488265</v>
+        <v>457912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>1132</v>
       </c>
       <c r="N10" s="7">
-        <v>911626</v>
+        <v>871777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,46 +4995,46 @@
         <v>132</v>
       </c>
       <c r="D11" s="7">
-        <v>133892</v>
+        <v>122474</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>127</v>
       </c>
       <c r="I11" s="7">
-        <v>95051</v>
+        <v>84394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>228942</v>
+        <v>206867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +5046,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4596,7 +5061,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>583316</v>
+        <v>542306</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4611,7 +5076,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1078644</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4634,46 +5099,46 @@
         <v>587</v>
       </c>
       <c r="D13" s="7">
-        <v>587524</v>
+        <v>562546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>1045</v>
       </c>
       <c r="I13" s="7">
-        <v>683565</v>
+        <v>656379</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>1632</v>
       </c>
       <c r="N13" s="7">
-        <v>1271091</v>
+        <v>1218924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,46 +5150,46 @@
         <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>136466</v>
+        <v>325240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
       </c>
       <c r="I14" s="7">
-        <v>63129</v>
+        <v>55958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>172</v>
       </c>
       <c r="N14" s="7">
-        <v>199594</v>
+        <v>381199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +5201,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4751,7 +5216,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746694</v>
+        <v>712337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4766,7 +5231,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470685</v>
+        <v>1600123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4789,46 +5254,46 @@
         <v>611</v>
       </c>
       <c r="D16" s="7">
-        <v>552948</v>
+        <v>518999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>957</v>
       </c>
       <c r="I16" s="7">
-        <v>565697</v>
+        <v>520010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>1568</v>
       </c>
       <c r="N16" s="7">
-        <v>1118646</v>
+        <v>1039010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,46 +5305,46 @@
         <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>46138</v>
+        <v>41238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
       </c>
       <c r="I17" s="7">
-        <v>31366</v>
+        <v>27895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
       </c>
       <c r="N17" s="7">
-        <v>77504</v>
+        <v>69132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +5356,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4906,7 +5371,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4921,7 +5386,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196150</v>
+        <v>1108142</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4941,49 +5406,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>998</v>
+        <v>545</v>
       </c>
       <c r="D19" s="7">
-        <v>675810</v>
+        <v>351548</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>1657</v>
+        <v>805</v>
       </c>
       <c r="I19" s="7">
-        <v>993929</v>
+        <v>597536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>2655</v>
+        <v>1350</v>
       </c>
       <c r="N19" s="7">
-        <v>1669739</v>
+        <v>949083</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,49 +5457,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>21129</v>
+        <v>15841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I20" s="7">
-        <v>30457</v>
+        <v>10282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="N20" s="7">
-        <v>51586</v>
+        <v>26124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,10 +5508,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696939</v>
+        <v>367389</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5058,10 +5523,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1024386</v>
+        <v>607818</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5073,10 +5538,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1721325</v>
+        <v>975207</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5090,55 +5555,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2887</v>
+        <v>453</v>
       </c>
       <c r="D22" s="7">
-        <v>2685412</v>
+        <v>279227</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
-        <v>4852</v>
+        <v>852</v>
       </c>
       <c r="I22" s="7">
-        <v>3298225</v>
+        <v>409014</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
-        <v>7739</v>
+        <v>1305</v>
       </c>
       <c r="N22" s="7">
-        <v>5983638</v>
+        <v>688241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,49 +5612,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>487</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>697930</v>
+        <v>3532</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
-        <v>504</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7">
-        <v>505659</v>
+        <v>15337</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
-        <v>991</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>1203588</v>
+        <v>18869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,63 +5663,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424351</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707110</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2887</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2601246</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4852</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3167804</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7739</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5769048</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>487</v>
+      </c>
+      <c r="D26" s="7">
+        <v>856798</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H26" s="7">
+        <v>504</v>
+      </c>
+      <c r="I26" s="7">
+        <v>490524</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M26" s="7">
+        <v>991</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1347323</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383342</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458044</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803884</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658328</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8730</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187226</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7116371</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
